--- a/database/dy/expdata/2002.xlsx
+++ b/database/dy/expdata/2002.xlsx
@@ -38,9 +38,6 @@
     <t>target</t>
   </si>
   <si>
-    <t>proton</t>
-  </si>
-  <si>
     <t>obs</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>pT_max</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -414,57 +414,57 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>-0.8</v>

--- a/database/dy/expdata/2002.xlsx
+++ b/database/dy/expdata/2002.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1860" windowWidth="37880" windowHeight="16580" tabRatio="500"/>
+    <workbookView xWindow="7920" yWindow="3200" windowWidth="37880" windowHeight="16580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>col</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>BeamTransversePolarization</t>
+  </si>
+  <si>
+    <t>TargetTransversePolarization</t>
   </si>
 </sst>
 </file>
@@ -395,105 +401,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
+      <c r="B2" t="b">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>-0.8</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.8</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>0.8</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>5.3</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>0.5</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>10</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>0.6</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>0.33</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>0</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>500</v>
       </c>
     </row>
